--- a/src/Components/JobList/vacancies.xlsx
+++ b/src/Components/JobList/vacancies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Default Company</t>
+          <t>Dexo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -500,7 +500,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Default Company</t>
+          <t>Dexo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Default Company</t>
+          <t>Dexo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -564,7 +564,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Default Company</t>
+          <t>Dexo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -590,6 +590,38 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>An Accessibility Developer focuses on making digital products and websites accessible to individuals with disabilities, ensuring compliance with accessibility standards.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>yeti</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Financial Controller</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Accounting Controller</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>M.Tech</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0 to 11 Years</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Accounting Controllers manage an organizations accounting and financial reporting functions. They ensure accurate financial records, compliance with accounting standards, and timely financial reporting to support informed decision-making.</t>
         </is>
       </c>
     </row>

--- a/src/Components/JobList/vacancies.xlsx
+++ b/src/Components/JobList/vacancies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +625,70 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dexo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Finance Manager</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Accounting Manager</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4 to 12 Years</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Accounting Managers supervise accounting teams. They ensure accurate financial reporting, manage budgets, and oversee financial transactions and compliance with accounting standards.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>dexo</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Customer Success Manager</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Account Manager</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>BCA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4 to 12 Years</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>An Account Manager builds and maintains relationships with clients or customers, ensuring their needs are met and promoting products or services to drive revenue and growth.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
